--- a/App.Web/App_Data/SeguimientoUnidades.xlsx
+++ b/App.Web/App_Data/SeguimientoUnidades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\Reportes\Cometidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\SourceNew\App.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,52 +383,53 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>